--- a/Data_processed/regional/north_america_consolidated.xlsx
+++ b/Data_processed/regional/north_america_consolidated.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/regional/north_america_consolidated.xlsx
+++ b/Data_processed/regional/north_america_consolidated.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/regional/north_america_consolidated.xlsx
+++ b/Data_processed/regional/north_america_consolidated.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.036335516096</v>
+        <v>0.1832334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1832334</v>
+        <v>5.1696617</v>
       </c>
       <c r="F2" t="n">
-        <v>5.1696617</v>
+        <v>5.1090334e-06</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.00221076142</v>
+        <v>0.007710413333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007710413333333334</v>
+        <v>2.7146856</v>
       </c>
       <c r="F3" t="n">
-        <v>2.7146856</v>
+        <v>2.1498678e-07</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.000678739804</v>
+        <v>0.002696516133333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002696516133333333</v>
+        <v>2.4069924</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4069924</v>
+        <v>7.518602499999999e-08</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.031855408488</v>
+        <v>0.1172720733333334</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1172720733333334</v>
+        <v>5.4198524</v>
       </c>
       <c r="F5" t="n">
-        <v>5.4198524</v>
+        <v>3.2698565e-06</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.001688553049</v>
+        <v>0.008116472000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008116472000000001</v>
+        <v>2.4751724</v>
       </c>
       <c r="F6" t="n">
-        <v>2.4751724</v>
+        <v>2.2630878e-07</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.01414591994</v>
+        <v>0.07082859333333334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07082859333333334</v>
+        <v>3.3732382</v>
       </c>
       <c r="F7" t="n">
-        <v>3.3732382</v>
+        <v>1.974889e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.042833162633</v>
+        <v>0.23382572</v>
       </c>
       <c r="E8" t="n">
-        <v>0.23382572</v>
+        <v>5.5935083</v>
       </c>
       <c r="F8" t="n">
-        <v>5.5935083</v>
+        <v>6.5196815e-06</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.05147977346578</v>
+        <v>0.2623447066666667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2623447066666667</v>
+        <v>6.807562</v>
       </c>
       <c r="F9" t="n">
-        <v>6.807562</v>
+        <v>7.3148665e-06</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.018968628413</v>
+        <v>0.01747998866666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01747998866666667</v>
+        <v>5.2048931</v>
       </c>
       <c r="F10" t="n">
-        <v>5.2048931</v>
+        <v>4.8738847e-07</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.016920235499</v>
+        <v>0.1090852666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1090852666666667</v>
+        <v>2.4378196</v>
       </c>
       <c r="F11" t="n">
-        <v>2.4378196</v>
+        <v>3.0415866e-06</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.000741434405</v>
+        <v>0.002762364733333334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002762364733333334</v>
+        <v>2.4289887</v>
       </c>
       <c r="F12" t="n">
-        <v>2.4289887</v>
+        <v>7.7022058e-08</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.043708557964</v>
+        <v>0.23363732</v>
       </c>
       <c r="E13" t="n">
-        <v>0.23363732</v>
+        <v>5.4935004</v>
       </c>
       <c r="F13" t="n">
-        <v>5.4935004</v>
+        <v>6.5144284e-06</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.00794784496</v>
+        <v>0.03169615533333334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03169615533333334</v>
+        <v>3.3269108</v>
       </c>
       <c r="F14" t="n">
-        <v>3.3269108</v>
+        <v>8.8377292e-07</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.029725933313</v>
+        <v>0.12164906</v>
       </c>
       <c r="E15" t="n">
-        <v>0.12164906</v>
+        <v>2.6868895</v>
       </c>
       <c r="F15" t="n">
-        <v>2.6868895</v>
+        <v>3.3918985e-06</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.042032416178</v>
+        <v>0.1858095733333333</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1858095733333333</v>
+        <v>2.0625558</v>
       </c>
       <c r="F16" t="n">
-        <v>2.0625558</v>
+        <v>5.1808639e-06</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.027283129053</v>
+        <v>0.1163672666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1163672666666667</v>
+        <v>2.4697079</v>
       </c>
       <c r="F17" t="n">
-        <v>2.4697079</v>
+        <v>3.2446281e-06</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.033879976903</v>
+        <v>0.1578564133333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1578564133333333</v>
+        <v>2.662409</v>
       </c>
       <c r="F18" t="n">
-        <v>2.662409</v>
+        <v>4.4014556e-06</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.01669190165</v>
+        <v>0.07914688</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07914688</v>
+        <v>1.6760207</v>
       </c>
       <c r="F19" t="n">
-        <v>1.6760207</v>
+        <v>2.2068249e-06</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.02689708011</v>
+        <v>0.1626436333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1626436333333333</v>
+        <v>2.1346874</v>
       </c>
       <c r="F20" t="n">
-        <v>2.1346874</v>
+        <v>4.534936e-06</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0272301187991</v>
+        <v>0.10548154</v>
       </c>
       <c r="E21" t="n">
-        <v>0.10548154</v>
+        <v>2.6184474</v>
       </c>
       <c r="F21" t="n">
-        <v>2.6184474</v>
+        <v>2.9411052e-06</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.032163714397</v>
+        <v>0.1893168533333333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1893168533333333</v>
+        <v>2.318853</v>
       </c>
       <c r="F22" t="n">
-        <v>2.318853</v>
+        <v>5.2786562e-06</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.0301314059346</v>
+        <v>0.1290245866666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1290245866666667</v>
+        <v>1.0628279</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0628279</v>
+        <v>3.5975478e-06</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.027443629109</v>
+        <v>0.1424655133333333</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1424655133333333</v>
+        <v>2.4356564</v>
       </c>
       <c r="F24" t="n">
-        <v>2.4356564</v>
+        <v>3.9723165e-06</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.029980922936</v>
+        <v>0.1234530133333333</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1234530133333333</v>
+        <v>2.6354131</v>
       </c>
       <c r="F25" t="n">
-        <v>2.6354131</v>
+        <v>3.4421975e-06</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.044203430647</v>
+        <v>0.2087811533333333</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2087811533333333</v>
+        <v>3.6383677</v>
       </c>
       <c r="F26" t="n">
-        <v>3.6383677</v>
+        <v>5.8213726e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.012221829885</v>
+        <v>0.06554909666666667</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06554909666666667</v>
+        <v>0.9728083199999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9728083199999999</v>
+        <v>1.8276827e-06</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.028664373456</v>
+        <v>0.08195748000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08195748000000001</v>
+        <v>2.8032063</v>
       </c>
       <c r="F28" t="n">
-        <v>2.8032063</v>
+        <v>2.2851921e-06</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.038085111824</v>
+        <v>0.2283765866666667</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2283765866666667</v>
+        <v>2.602848</v>
       </c>
       <c r="F29" t="n">
-        <v>2.602848</v>
+        <v>6.3677452e-06</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.019989086834</v>
+        <v>0.1164653</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1164653</v>
+        <v>1.718935</v>
       </c>
       <c r="F30" t="n">
-        <v>1.718935</v>
+        <v>3.2473616e-06</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.023308751931</v>
+        <v>0.1129957066666667</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1129957066666667</v>
+        <v>2.1489864</v>
       </c>
       <c r="F31" t="n">
-        <v>2.1489864</v>
+        <v>3.1506201e-06</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.043077813641</v>
+        <v>0.2589205733333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2589205733333333</v>
+        <v>2.8031876</v>
       </c>
       <c r="F32" t="n">
-        <v>2.8031876</v>
+        <v>7.2193925e-06</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.0341124725436</v>
+        <v>0.16396954</v>
       </c>
       <c r="E33" t="n">
-        <v>0.16396954</v>
+        <v>2.5702852</v>
       </c>
       <c r="F33" t="n">
-        <v>2.5702852</v>
+        <v>4.5719058e-06</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.01498070295</v>
+        <v>0.07361596666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07361596666666667</v>
+        <v>1.3320069</v>
       </c>
       <c r="F34" t="n">
-        <v>1.3320069</v>
+        <v>2.0526085e-06</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.027559816607</v>
+        <v>0.09614878</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09614878</v>
+        <v>2.5904912</v>
       </c>
       <c r="F35" t="n">
-        <v>2.5904912</v>
+        <v>2.680883e-06</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.028041795272</v>
+        <v>0.1594943333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1594943333333333</v>
+        <v>2.0852241</v>
       </c>
       <c r="F36" t="n">
-        <v>2.0852241</v>
+        <v>4.4471252e-06</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.031978917287</v>
+        <v>0.14753592</v>
       </c>
       <c r="E37" t="n">
-        <v>0.14753592</v>
+        <v>2.6257526</v>
       </c>
       <c r="F37" t="n">
-        <v>2.6257526</v>
+        <v>4.1136929e-06</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.027077893088</v>
+        <v>0.12422672</v>
       </c>
       <c r="E38" t="n">
-        <v>0.12422672</v>
+        <v>2.3292272</v>
       </c>
       <c r="F38" t="n">
-        <v>2.3292272</v>
+        <v>3.4637705e-06</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.0294851648203</v>
+        <v>0.14580926</v>
       </c>
       <c r="E39" t="n">
-        <v>0.14580926</v>
+        <v>2.5423805</v>
       </c>
       <c r="F39" t="n">
-        <v>2.5423805</v>
+        <v>4.0655491e-06</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.04260164534499999</v>
+        <v>0.2226542933333333</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2226542933333333</v>
+        <v>2.8453696</v>
       </c>
       <c r="F40" t="n">
-        <v>2.8453696</v>
+        <v>6.2081924e-06</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.027522914732</v>
+        <v>0.1632737</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1632737</v>
+        <v>1.7386242</v>
       </c>
       <c r="F41" t="n">
-        <v>1.7386242</v>
+        <v>4.5525039e-06</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.033885180743</v>
+        <v>0.1602270266666667</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1602270266666667</v>
+        <v>2.4417936</v>
       </c>
       <c r="F42" t="n">
-        <v>2.4417936</v>
+        <v>4.4675546e-06</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.020031294006</v>
+        <v>0.11566708</v>
       </c>
       <c r="E43" t="n">
-        <v>0.11566708</v>
+        <v>1.8958518</v>
       </c>
       <c r="F43" t="n">
-        <v>1.8958518</v>
+        <v>3.225105e-06</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.024283231355</v>
+        <v>0.049392332</v>
       </c>
       <c r="E44" t="n">
-        <v>0.049392332</v>
+        <v>2.6649837</v>
       </c>
       <c r="F44" t="n">
-        <v>2.6649837</v>
+        <v>1.3771893e-06</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.0281346885377</v>
+        <v>0.09397781333333333</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09397781333333333</v>
+        <v>2.7356092</v>
       </c>
       <c r="F45" t="n">
-        <v>2.7356092</v>
+        <v>2.6203508e-06</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.020453230608</v>
+        <v>0.1230246266666667</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1230246266666667</v>
+        <v>1.9341853</v>
       </c>
       <c r="F46" t="n">
-        <v>1.9341853</v>
+        <v>3.430253e-06</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.022252334898</v>
+        <v>0.09248047333333334</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09248047333333334</v>
+        <v>1.9491906</v>
       </c>
       <c r="F47" t="n">
-        <v>1.9491906</v>
+        <v>2.5786009e-06</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.028036501709</v>
+        <v>0.1079205266666667</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1079205266666667</v>
+        <v>2.5592533</v>
       </c>
       <c r="F48" t="n">
-        <v>2.5592533</v>
+        <v>3.0091106e-06</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.036079121181</v>
+        <v>0.20487198</v>
       </c>
       <c r="E49" t="n">
-        <v>0.20487198</v>
+        <v>2.2515497</v>
       </c>
       <c r="F49" t="n">
-        <v>2.2515497</v>
+        <v>5.7123745e-06</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.032901761589</v>
+        <v>0.17212136</v>
       </c>
       <c r="E50" t="n">
-        <v>0.17212136</v>
+        <v>2.6262922</v>
       </c>
       <c r="F50" t="n">
-        <v>2.6262922</v>
+        <v>4.7992002e-06</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.01946853443</v>
+        <v>0.1119614933333333</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1119614933333333</v>
+        <v>1.8278264</v>
       </c>
       <c r="F51" t="n">
-        <v>1.8278264</v>
+        <v>3.1217834e-06</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.012445881162</v>
+        <v>0.06459107733333334</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06459107733333334</v>
+        <v>1.1130136</v>
       </c>
       <c r="F52" t="n">
-        <v>1.1130136</v>
+        <v>1.8009706e-06</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.0285826399305</v>
+        <v>0.1163105333333333</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1163105333333333</v>
+        <v>2.6522667</v>
       </c>
       <c r="F53" t="n">
-        <v>2.6522667</v>
+        <v>3.2430464e-06</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.026670945873</v>
+        <v>0.1548896466666667</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1548896466666667</v>
+        <v>2.3180762</v>
       </c>
       <c r="F54" t="n">
-        <v>2.3180762</v>
+        <v>4.3187343e-06</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.030453414838</v>
+        <v>0.09035044666666667</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09035044666666667</v>
+        <v>2.9121986</v>
       </c>
       <c r="F55" t="n">
-        <v>2.9121986</v>
+        <v>2.5192102e-06</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.010107186239</v>
+        <v>0.05864620333333333</v>
       </c>
       <c r="E56" t="n">
-        <v>0.05864620333333333</v>
+        <v>1.1528896</v>
       </c>
       <c r="F56" t="n">
-        <v>1.1528896</v>
+        <v>1.6352118e-06</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2192,13 +2237,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.031669415005</v>
+        <v>0.10999302</v>
       </c>
       <c r="E57" t="n">
-        <v>0.10999302</v>
+        <v>2.7278734</v>
       </c>
       <c r="F57" t="n">
-        <v>2.7278734</v>
+        <v>3.0668972e-06</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.026197446494</v>
+        <v>0.1401816666666667</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1401816666666667</v>
+        <v>2.1643785</v>
       </c>
       <c r="F58" t="n">
-        <v>2.1643785</v>
+        <v>3.9086368e-06</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.03507319962</v>
+        <v>0.20774384</v>
       </c>
       <c r="E59" t="n">
-        <v>0.20774384</v>
+        <v>2.5164147</v>
       </c>
       <c r="F59" t="n">
-        <v>2.5164147</v>
+        <v>5.7924495e-06</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.00386568913</v>
+        <v>0.003086757</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003086757</v>
+        <v>0.8142263</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8142263</v>
+        <v>8.6066976e-08</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.027669418172</v>
+        <v>0.1065172333333333</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1065172333333333</v>
+        <v>2.6174974</v>
       </c>
       <c r="F61" t="n">
-        <v>2.6174974</v>
+        <v>2.9699832e-06</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2347,13 +2392,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.011210345022</v>
+        <v>0.050026954</v>
       </c>
       <c r="E62" t="n">
-        <v>0.050026954</v>
+        <v>0.93477257</v>
       </c>
       <c r="F62" t="n">
-        <v>0.93477257</v>
+        <v>1.3948842e-06</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2378,13 +2423,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.04626219606</v>
+        <v>0.27936292</v>
       </c>
       <c r="E63" t="n">
-        <v>0.27936292</v>
+        <v>3.0155772</v>
       </c>
       <c r="F63" t="n">
-        <v>3.0155772</v>
+        <v>7.789379399999999e-06</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2409,13 +2454,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.034135823332</v>
+        <v>0.1800273466666667</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1800273466666667</v>
+        <v>2.6732467</v>
       </c>
       <c r="F64" t="n">
-        <v>2.6732467</v>
+        <v>5.0196401e-06</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2440,13 +2485,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.044595408138</v>
+        <v>0.2674347533333333</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2674347533333333</v>
+        <v>2.6637193</v>
       </c>
       <c r="F65" t="n">
-        <v>2.6637193</v>
+        <v>7.4567905e-06</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2456,5 +2501,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>